--- a/xlsx/马丁·瓦尔德泽米勒_intext.xlsx
+++ b/xlsx/马丁·瓦尔德泽米勒_intext.xlsx
@@ -29,7 +29,7 @@
     <t>日耳曼</t>
   </si>
   <si>
-    <t>政策_政策_美國_马丁·瓦尔德泽米勒</t>
+    <t>政策_政策_美国_马丁·瓦尔德泽米勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9B%BE%E5%AD%A6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E5%BE%B7%E5%A1%9E%E5%BD%8C%E5%8B%92%E5%9C%B0%E5%9C%96</t>
   </si>
   <si>
-    <t>瓦爾德塞彌勒地圖</t>
+    <t>瓦尔德塞弥勒地图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%99%BB-%E7%AC%A6%E8%85%BE%E5%A0%A1</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%B3%B4%E6%96%AF%E9%AB%98</t>
   </si>
   <si>
-    <t>布賴斯高</t>
+    <t>布赖斯高</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%B5%96%E5%A0%A1</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國會圖書館 (美國)</t>
+    <t>国会图书馆 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9E%97</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>天主教百科全書</t>
+    <t>天主教百科全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
